--- a/data/P_Type.xlsx
+++ b/data/P_Type.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\model with segments and powertrain\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055433D-B39D-43FD-907A-4252544FA64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4F70B9-792E-423A-96DD-A39A198DD4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1E14EBA-2D53-4191-B00D-F0359C507412}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A1E14EBA-2D53-4191-B00D-F0359C507412}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -659,20 +658,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB1639-9E4D-44A6-B4F6-D0F3393AFAEB}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -690,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -710,7 +709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -728,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -750,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -772,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -794,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -814,7 +813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -832,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -850,7 +849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -868,7 +867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -886,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -904,7 +903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -922,7 +921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -940,7 +939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -958,7 +957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -970,7 +969,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -982,7 +981,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -994,7 +993,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1006,7 +1005,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1018,7 +1017,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
@@ -1068,7 +1067,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1120,7 +1119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1132,7 +1131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1142,7 +1141,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1152,6 +1151,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1159,13 +1159,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF9B55B-12FE-418D-9CE2-848557F20CC6}">
   <dimension ref="A1:EX5"/>
   <sheetViews>
-    <sheetView topLeftCell="EB1" workbookViewId="0">
-      <selection activeCell="EG11" sqref="EG11"/>
+    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
+      <selection activeCell="EU2" sqref="DS2:EU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1900</v>
@@ -1623,7 +1623,7 @@
       <c r="EW1" s="1"/>
       <c r="EX1" s="1"/>
     </row>
-    <row r="2" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,298 +2041,327 @@
         <v>0.99</v>
       </c>
       <c r="DS2" s="3">
-        <v>0.99</v>
+        <f t="shared" ref="DS2:EV4" si="2">DR2+($EV2-$DR2)/30</f>
+        <v>0.97366666666666668</v>
       </c>
       <c r="DT2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.95733333333333337</v>
       </c>
       <c r="DU2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.94100000000000006</v>
       </c>
       <c r="DV2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.92466666666666675</v>
       </c>
       <c r="DW2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.90833333333333344</v>
       </c>
       <c r="DX2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.89200000000000013</v>
       </c>
       <c r="DY2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.87566666666666682</v>
       </c>
       <c r="DZ2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.8593333333333335</v>
       </c>
       <c r="EA2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.84300000000000019</v>
       </c>
       <c r="EB2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.82666666666666688</v>
       </c>
       <c r="EC2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.81033333333333357</v>
       </c>
       <c r="ED2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.79400000000000026</v>
       </c>
       <c r="EE2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.77766666666666695</v>
       </c>
       <c r="EF2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.76133333333333364</v>
       </c>
       <c r="EG2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.74500000000000033</v>
       </c>
       <c r="EH2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.72866666666666702</v>
       </c>
       <c r="EI2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.71233333333333371</v>
       </c>
       <c r="EJ2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.6960000000000004</v>
       </c>
       <c r="EK2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.67966666666666709</v>
       </c>
       <c r="EL2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.66333333333333377</v>
       </c>
       <c r="EM2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.64700000000000046</v>
       </c>
       <c r="EN2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.63066666666666715</v>
       </c>
       <c r="EO2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.61433333333333384</v>
       </c>
       <c r="EP2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.59800000000000053</v>
       </c>
       <c r="EQ2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.58166666666666722</v>
       </c>
       <c r="ER2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.56533333333333391</v>
       </c>
       <c r="ES2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.5490000000000006</v>
       </c>
       <c r="ET2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.53266666666666729</v>
       </c>
       <c r="EU2" s="3">
-        <v>0.99</v>
+        <f t="shared" si="2"/>
+        <v>0.51633333333333398</v>
       </c>
       <c r="EV2" s="3">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:AG3" si="2">C3</f>
+        <f t="shared" ref="B3:AG3" si="3">C3</f>
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AY3" si="3">AI3</f>
+        <f t="shared" ref="AH3:AY3" si="4">AI3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ3" s="3">
@@ -2549,298 +2578,327 @@
         <v>1.2</v>
       </c>
       <c r="DS3" s="3">
-        <v>1.2</v>
+        <f t="shared" ref="DS3:EH4" si="5">DR3+($EV3-$DR3)/30</f>
+        <v>1.1866666666666665</v>
       </c>
       <c r="DT3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.1733333333333331</v>
       </c>
       <c r="DU3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.1599999999999997</v>
       </c>
       <c r="DV3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.1466666666666663</v>
       </c>
       <c r="DW3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.1333333333333329</v>
       </c>
       <c r="DX3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.1199999999999994</v>
       </c>
       <c r="DY3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.106666666666666</v>
       </c>
       <c r="DZ3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0933333333333326</v>
       </c>
       <c r="EA3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0799999999999992</v>
       </c>
       <c r="EB3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0666666666666658</v>
       </c>
       <c r="EC3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0533333333333323</v>
       </c>
       <c r="ED3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0399999999999989</v>
       </c>
       <c r="EE3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0266666666666655</v>
       </c>
       <c r="EF3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>1.0133333333333321</v>
       </c>
       <c r="EG3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>0.99999999999999878</v>
       </c>
       <c r="EH3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="5"/>
+        <v>0.98666666666666547</v>
       </c>
       <c r="EI3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.97333333333333216</v>
       </c>
       <c r="EJ3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.95999999999999885</v>
       </c>
       <c r="EK3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.94666666666666555</v>
       </c>
       <c r="EL3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.93333333333333224</v>
       </c>
       <c r="EM3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.91999999999999893</v>
       </c>
       <c r="EN3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.90666666666666562</v>
       </c>
       <c r="EO3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.89333333333333231</v>
       </c>
       <c r="EP3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.87999999999999901</v>
       </c>
       <c r="EQ3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.8666666666666657</v>
       </c>
       <c r="ER3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.85333333333333239</v>
       </c>
       <c r="ES3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.83999999999999908</v>
       </c>
       <c r="ET3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.82666666666666577</v>
       </c>
       <c r="EU3" s="3">
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>0.81333333333333246</v>
       </c>
       <c r="EV3" s="3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:AG4" si="4">C4</f>
+        <f t="shared" ref="B4:AG4" si="6">C4</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" ref="AH4:AY4" si="5">AI4</f>
+        <f t="shared" ref="AH4:AY4" si="7">AI4</f>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AZ4" s="3">
@@ -3057,298 +3115,327 @@
         <v>1.8786440252787182</v>
       </c>
       <c r="DS4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="5"/>
+        <v>1.859355891102761</v>
       </c>
       <c r="DT4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.8400677569268038</v>
       </c>
       <c r="DU4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.8207796227508466</v>
       </c>
       <c r="DV4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.8014914885748894</v>
       </c>
       <c r="DW4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.7822033543989322</v>
       </c>
       <c r="DX4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.762915220222975</v>
       </c>
       <c r="DY4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.7436270860470178</v>
       </c>
       <c r="DZ4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.7243389518710606</v>
       </c>
       <c r="EA4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.7050508176951034</v>
       </c>
       <c r="EB4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.6857626835191462</v>
       </c>
       <c r="EC4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.6664745493431889</v>
       </c>
       <c r="ED4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.6471864151672317</v>
       </c>
       <c r="EE4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.6278982809912745</v>
       </c>
       <c r="EF4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.6086101468153173</v>
       </c>
       <c r="EG4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.5893220126393601</v>
       </c>
       <c r="EH4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.5700338784634029</v>
       </c>
       <c r="EI4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.5507457442874457</v>
       </c>
       <c r="EJ4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.5314576101114885</v>
       </c>
       <c r="EK4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.5121694759355313</v>
       </c>
       <c r="EL4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.4928813417595741</v>
       </c>
       <c r="EM4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.4735932075836169</v>
       </c>
       <c r="EN4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.4543050734076597</v>
       </c>
       <c r="EO4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.4350169392317025</v>
       </c>
       <c r="EP4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.4157288050557453</v>
       </c>
       <c r="EQ4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.3964406708797881</v>
       </c>
       <c r="ER4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.3771525367038309</v>
       </c>
       <c r="ES4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.3578644025278737</v>
       </c>
       <c r="ET4" s="3">
-        <v>1.8786440252787182</v>
+        <f t="shared" si="2"/>
+        <v>1.3385762683519165</v>
       </c>
       <c r="EU4" s="3">
-        <v>1.87864402527872</v>
+        <f t="shared" si="2"/>
+        <v>1.3192881341759592</v>
       </c>
       <c r="EV4" s="3">
-        <v>1.87864402527872</v>
+        <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:154" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:AG5" si="6">C5</f>
+        <f t="shared" ref="B5:AG5" si="8">C5</f>
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <f t="shared" ref="AH5:AY5" si="7">AI5</f>
+        <f t="shared" ref="AH5:AY5" si="9">AI5</f>
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AR5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AV5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AW5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AZ5" s="3">
@@ -3565,97 +3652,127 @@
         <v>1.9700357533836292</v>
       </c>
       <c r="DS5" s="3">
-        <v>1.9700357533836292</v>
+        <f>DR5+($EV5-$DR5)/30</f>
+        <v>1.9543678949375083</v>
       </c>
       <c r="DT5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" ref="DT5:EV5" si="10">DS5+($EV5-$DR5)/30</f>
+        <v>1.9387000364913873</v>
       </c>
       <c r="DU5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.9230321780452664</v>
       </c>
       <c r="DV5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.9073643195991454</v>
       </c>
       <c r="DW5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8916964611530245</v>
       </c>
       <c r="DX5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8760286027069035</v>
       </c>
       <c r="DY5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8603607442607826</v>
       </c>
       <c r="DZ5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8446928858146616</v>
       </c>
       <c r="EA5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8290250273685407</v>
       </c>
       <c r="EB5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.8133571689224197</v>
       </c>
       <c r="EC5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.7976893104762988</v>
       </c>
       <c r="ED5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.7820214520301778</v>
       </c>
       <c r="EE5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.7663535935840569</v>
       </c>
       <c r="EF5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.7506857351379359</v>
       </c>
       <c r="EG5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.735017876691815</v>
       </c>
       <c r="EH5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.719350018245694</v>
       </c>
       <c r="EI5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.703682159799573</v>
       </c>
       <c r="EJ5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6880143013534521</v>
       </c>
       <c r="EK5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6723464429073311</v>
       </c>
       <c r="EL5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6566785844612102</v>
       </c>
       <c r="EM5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6410107260150892</v>
       </c>
       <c r="EN5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6253428675689683</v>
       </c>
       <c r="EO5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.6096750091228473</v>
       </c>
       <c r="EP5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.5940071506767264</v>
       </c>
       <c r="EQ5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.5783392922306054</v>
       </c>
       <c r="ER5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.5626714337844845</v>
       </c>
       <c r="ES5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.5470035753383635</v>
       </c>
       <c r="ET5" s="3">
-        <v>1.9700357533836292</v>
+        <f t="shared" si="10"/>
+        <v>1.5313357168922426</v>
       </c>
       <c r="EU5" s="3">
-        <v>1.9700357533836299</v>
+        <f t="shared" si="10"/>
+        <v>1.5156678584461216</v>
       </c>
       <c r="EV5" s="3">
-        <v>1.9700357533836299</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/P_Type.xlsx
+++ b/data/P_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4F70B9-792E-423A-96DD-A39A198DD4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82134FDD-E314-420A-9095-E844B6B80916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A1E14EBA-2D53-4191-B00D-F0359C507412}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A1E14EBA-2D53-4191-B00D-F0359C507412}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -1159,8 +1159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF9B55B-12FE-418D-9CE2-848557F20CC6}">
   <dimension ref="A1:EX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
-      <selection activeCell="EU2" sqref="DS2:EU2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="DL2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="EV6" sqref="EV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,123 +2044,94 @@
         <v>0.99</v>
       </c>
       <c r="DS2" s="3">
-        <f t="shared" ref="DS2:EV4" si="2">DR2+($EV2-$DR2)/30</f>
-        <v>0.97366666666666668</v>
+        <v>0.99</v>
       </c>
       <c r="DT2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.95733333333333337</v>
+        <v>0.99</v>
       </c>
       <c r="DU2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.94100000000000006</v>
+        <v>0.99</v>
       </c>
       <c r="DV2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.92466666666666675</v>
+        <v>0.99</v>
       </c>
       <c r="DW2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.90833333333333344</v>
+        <v>0.99</v>
       </c>
       <c r="DX2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.89200000000000013</v>
+        <v>0.99</v>
       </c>
       <c r="DY2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.87566666666666682</v>
+        <v>0.99</v>
       </c>
       <c r="DZ2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.8593333333333335</v>
+        <v>0.99</v>
       </c>
       <c r="EA2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.84300000000000019</v>
+        <v>0.99</v>
       </c>
       <c r="EB2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.82666666666666688</v>
+        <v>0.99</v>
       </c>
       <c r="EC2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.81033333333333357</v>
+        <v>0.99</v>
       </c>
       <c r="ED2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.79400000000000026</v>
+        <v>0.99</v>
       </c>
       <c r="EE2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.77766666666666695</v>
+        <v>0.99</v>
       </c>
       <c r="EF2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.76133333333333364</v>
+        <v>0.99</v>
       </c>
       <c r="EG2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74500000000000033</v>
+        <v>0.99</v>
       </c>
       <c r="EH2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.72866666666666702</v>
+        <v>0.99</v>
       </c>
       <c r="EI2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71233333333333371</v>
+        <v>0.99</v>
       </c>
       <c r="EJ2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.6960000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="EK2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.67966666666666709</v>
+        <v>0.99</v>
       </c>
       <c r="EL2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.66333333333333377</v>
+        <v>0.99</v>
       </c>
       <c r="EM2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.64700000000000046</v>
+        <v>0.99</v>
       </c>
       <c r="EN2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.63066666666666715</v>
+        <v>0.99</v>
       </c>
       <c r="EO2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.61433333333333384</v>
+        <v>0.99</v>
       </c>
       <c r="EP2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.59800000000000053</v>
+        <v>0.99</v>
       </c>
       <c r="EQ2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.58166666666666722</v>
+        <v>0.99</v>
       </c>
       <c r="ER2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.56533333333333391</v>
+        <v>0.99</v>
       </c>
       <c r="ES2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.5490000000000006</v>
+        <v>0.99</v>
       </c>
       <c r="ET2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53266666666666729</v>
+        <v>0.99</v>
       </c>
       <c r="EU2" s="3">
-        <f t="shared" si="2"/>
-        <v>0.51633333333333398</v>
+        <v>0.99</v>
       </c>
       <c r="EV2" s="3">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
@@ -2165,205 +2139,205 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:AG3" si="3">C3</f>
+        <f t="shared" ref="B3:AG3" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="C3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AY3" si="3">AI3</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="AJ3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="AK3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="AL3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="AM3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="AN3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="AO3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="AP3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="AQ3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="AR3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="AS3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="AT3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="AU3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P3" s="2">
+      <c r="AV3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="AW3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R3" s="2">
+      <c r="AX3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S3" s="2">
+      <c r="AY3" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AY3" si="4">AI3</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AZ3" s="3">
         <v>0</v>
       </c>
@@ -2578,123 +2552,94 @@
         <v>1.2</v>
       </c>
       <c r="DS3" s="3">
-        <f t="shared" ref="DS3:EH4" si="5">DR3+($EV3-$DR3)/30</f>
-        <v>1.1866666666666665</v>
+        <v>1.2</v>
       </c>
       <c r="DT3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1733333333333331</v>
+        <v>1.2</v>
       </c>
       <c r="DU3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1599999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="DV3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1466666666666663</v>
+        <v>1.2</v>
       </c>
       <c r="DW3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1333333333333329</v>
+        <v>1.2</v>
       </c>
       <c r="DX3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1199999999999994</v>
+        <v>1.2</v>
       </c>
       <c r="DY3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.106666666666666</v>
+        <v>1.2</v>
       </c>
       <c r="DZ3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0933333333333326</v>
+        <v>1.2</v>
       </c>
       <c r="EA3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0799999999999992</v>
+        <v>1.2</v>
       </c>
       <c r="EB3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0666666666666658</v>
+        <v>1.2</v>
       </c>
       <c r="EC3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0533333333333323</v>
+        <v>1.2</v>
       </c>
       <c r="ED3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0399999999999989</v>
+        <v>1.2</v>
       </c>
       <c r="EE3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0266666666666655</v>
+        <v>1.2</v>
       </c>
       <c r="EF3" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0133333333333321</v>
+        <v>1.2</v>
       </c>
       <c r="EG3" s="3">
-        <f t="shared" si="5"/>
-        <v>0.99999999999999878</v>
+        <v>1.2</v>
       </c>
       <c r="EH3" s="3">
-        <f t="shared" si="5"/>
-        <v>0.98666666666666547</v>
+        <v>1.2</v>
       </c>
       <c r="EI3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.97333333333333216</v>
+        <v>1.2</v>
       </c>
       <c r="EJ3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.95999999999999885</v>
+        <v>1.2</v>
       </c>
       <c r="EK3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.94666666666666555</v>
+        <v>1.2</v>
       </c>
       <c r="EL3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93333333333333224</v>
+        <v>1.2</v>
       </c>
       <c r="EM3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.91999999999999893</v>
+        <v>1.2</v>
       </c>
       <c r="EN3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.90666666666666562</v>
+        <v>1.2</v>
       </c>
       <c r="EO3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.89333333333333231</v>
+        <v>1.2</v>
       </c>
       <c r="EP3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.87999999999999901</v>
+        <v>1.2</v>
       </c>
       <c r="EQ3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.8666666666666657</v>
+        <v>1.2</v>
       </c>
       <c r="ER3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.85333333333333239</v>
+        <v>1.2</v>
       </c>
       <c r="ES3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.83999999999999908</v>
+        <v>1.2</v>
       </c>
       <c r="ET3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.82666666666666577</v>
+        <v>1.2</v>
       </c>
       <c r="EU3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.81333333333333246</v>
+        <v>1.2</v>
       </c>
       <c r="EV3" s="3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.25">
@@ -2702,203 +2647,203 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:AG4" si="6">C4</f>
+        <f t="shared" ref="B4:AG4" si="4">C4</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" ref="AH4:AY4" si="7">AI4</f>
+        <f t="shared" ref="AH4:AY4" si="5">AI4</f>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ4" s="3">
@@ -3115,123 +3060,123 @@
         <v>1.8786440252787182</v>
       </c>
       <c r="DS4" s="3">
-        <f t="shared" si="5"/>
-        <v>1.859355891102761</v>
+        <f t="shared" ref="DS4" si="6">DR4+($EV4-$DR4)/30</f>
+        <v>1.8626892244360942</v>
       </c>
       <c r="DT4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8400677569268038</v>
+        <f t="shared" ref="DS2:EU4" si="7">DS4+($EV4-$DR4)/30</f>
+        <v>1.8467344235934702</v>
       </c>
       <c r="DU4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8207796227508466</v>
+        <f t="shared" si="7"/>
+        <v>1.8307796227508462</v>
       </c>
       <c r="DV4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8014914885748894</v>
+        <f t="shared" si="7"/>
+        <v>1.8148248219082221</v>
       </c>
       <c r="DW4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7822033543989322</v>
+        <f t="shared" si="7"/>
+        <v>1.7988700210655981</v>
       </c>
       <c r="DX4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.762915220222975</v>
+        <f t="shared" si="7"/>
+        <v>1.7829152202229741</v>
       </c>
       <c r="DY4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7436270860470178</v>
+        <f t="shared" si="7"/>
+        <v>1.7669604193803501</v>
       </c>
       <c r="DZ4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7243389518710606</v>
+        <f t="shared" si="7"/>
+        <v>1.7510056185377261</v>
       </c>
       <c r="EA4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7050508176951034</v>
+        <f t="shared" si="7"/>
+        <v>1.7350508176951021</v>
       </c>
       <c r="EB4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6857626835191462</v>
+        <f t="shared" si="7"/>
+        <v>1.719096016852478</v>
       </c>
       <c r="EC4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6664745493431889</v>
+        <f t="shared" si="7"/>
+        <v>1.703141216009854</v>
       </c>
       <c r="ED4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6471864151672317</v>
+        <f t="shared" si="7"/>
+        <v>1.68718641516723</v>
       </c>
       <c r="EE4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6278982809912745</v>
+        <f t="shared" si="7"/>
+        <v>1.671231614324606</v>
       </c>
       <c r="EF4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6086101468153173</v>
+        <f t="shared" si="7"/>
+        <v>1.655276813481982</v>
       </c>
       <c r="EG4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5893220126393601</v>
+        <f t="shared" si="7"/>
+        <v>1.639322012639358</v>
       </c>
       <c r="EH4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5700338784634029</v>
+        <f t="shared" si="7"/>
+        <v>1.6233672117967339</v>
       </c>
       <c r="EI4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5507457442874457</v>
+        <f t="shared" si="7"/>
+        <v>1.6074124109541099</v>
       </c>
       <c r="EJ4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5314576101114885</v>
+        <f t="shared" si="7"/>
+        <v>1.5914576101114859</v>
       </c>
       <c r="EK4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5121694759355313</v>
+        <f t="shared" si="7"/>
+        <v>1.5755028092688619</v>
       </c>
       <c r="EL4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4928813417595741</v>
+        <f t="shared" si="7"/>
+        <v>1.5595480084262379</v>
       </c>
       <c r="EM4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4735932075836169</v>
+        <f t="shared" si="7"/>
+        <v>1.5435932075836138</v>
       </c>
       <c r="EN4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4543050734076597</v>
+        <f t="shared" si="7"/>
+        <v>1.5276384067409898</v>
       </c>
       <c r="EO4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4350169392317025</v>
+        <f t="shared" si="7"/>
+        <v>1.5116836058983658</v>
       </c>
       <c r="EP4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4157288050557453</v>
+        <f t="shared" si="7"/>
+        <v>1.4957288050557418</v>
       </c>
       <c r="EQ4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3964406708797881</v>
+        <f t="shared" si="7"/>
+        <v>1.4797740042131178</v>
       </c>
       <c r="ER4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3771525367038309</v>
+        <f t="shared" si="7"/>
+        <v>1.4638192033704938</v>
       </c>
       <c r="ES4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3578644025278737</v>
+        <f t="shared" si="7"/>
+        <v>1.4478644025278697</v>
       </c>
       <c r="ET4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3385762683519165</v>
+        <f t="shared" si="7"/>
+        <v>1.4319096016852457</v>
       </c>
       <c r="EU4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3192881341759592</v>
+        <f t="shared" si="7"/>
+        <v>1.4159548008426217</v>
       </c>
       <c r="EV4" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
@@ -3653,122 +3598,122 @@
       </c>
       <c r="DS5" s="3">
         <f>DR5+($EV5-$DR5)/30</f>
-        <v>1.9543678949375083</v>
+        <v>1.9577012282708417</v>
       </c>
       <c r="DT5" s="3">
-        <f t="shared" ref="DT5:EV5" si="10">DS5+($EV5-$DR5)/30</f>
-        <v>1.9387000364913873</v>
+        <f t="shared" ref="DT5:EU5" si="10">DS5+($EV5-$DR5)/30</f>
+        <v>1.9453667031580542</v>
       </c>
       <c r="DU5" s="3">
         <f t="shared" si="10"/>
-        <v>1.9230321780452664</v>
+        <v>1.9330321780452666</v>
       </c>
       <c r="DV5" s="3">
         <f t="shared" si="10"/>
-        <v>1.9073643195991454</v>
+        <v>1.9206976529324791</v>
       </c>
       <c r="DW5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8916964611530245</v>
+        <v>1.9083631278196915</v>
       </c>
       <c r="DX5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8760286027069035</v>
+        <v>1.896028602706904</v>
       </c>
       <c r="DY5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8603607442607826</v>
+        <v>1.8836940775941164</v>
       </c>
       <c r="DZ5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8446928858146616</v>
+        <v>1.8713595524813289</v>
       </c>
       <c r="EA5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8290250273685407</v>
+        <v>1.8590250273685414</v>
       </c>
       <c r="EB5" s="3">
         <f t="shared" si="10"/>
-        <v>1.8133571689224197</v>
+        <v>1.8466905022557538</v>
       </c>
       <c r="EC5" s="3">
         <f t="shared" si="10"/>
-        <v>1.7976893104762988</v>
+        <v>1.8343559771429663</v>
       </c>
       <c r="ED5" s="3">
         <f t="shared" si="10"/>
-        <v>1.7820214520301778</v>
+        <v>1.8220214520301787</v>
       </c>
       <c r="EE5" s="3">
         <f t="shared" si="10"/>
-        <v>1.7663535935840569</v>
+        <v>1.8096869269173912</v>
       </c>
       <c r="EF5" s="3">
         <f t="shared" si="10"/>
-        <v>1.7506857351379359</v>
+        <v>1.7973524018046036</v>
       </c>
       <c r="EG5" s="3">
         <f t="shared" si="10"/>
-        <v>1.735017876691815</v>
+        <v>1.7850178766918161</v>
       </c>
       <c r="EH5" s="3">
         <f t="shared" si="10"/>
-        <v>1.719350018245694</v>
+        <v>1.7726833515790286</v>
       </c>
       <c r="EI5" s="3">
         <f t="shared" si="10"/>
-        <v>1.703682159799573</v>
+        <v>1.760348826466241</v>
       </c>
       <c r="EJ5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6880143013534521</v>
+        <v>1.7480143013534535</v>
       </c>
       <c r="EK5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6723464429073311</v>
+        <v>1.7356797762406659</v>
       </c>
       <c r="EL5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6566785844612102</v>
+        <v>1.7233452511278784</v>
       </c>
       <c r="EM5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6410107260150892</v>
+        <v>1.7110107260150909</v>
       </c>
       <c r="EN5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6253428675689683</v>
+        <v>1.6986762009023033</v>
       </c>
       <c r="EO5" s="3">
         <f t="shared" si="10"/>
-        <v>1.6096750091228473</v>
+        <v>1.6863416757895158</v>
       </c>
       <c r="EP5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5940071506767264</v>
+        <v>1.6740071506767282</v>
       </c>
       <c r="EQ5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5783392922306054</v>
+        <v>1.6616726255639407</v>
       </c>
       <c r="ER5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5626714337844845</v>
+        <v>1.6493381004511531</v>
       </c>
       <c r="ES5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5470035753383635</v>
+        <v>1.6370035753383656</v>
       </c>
       <c r="ET5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5313357168922426</v>
+        <v>1.6246690502255781</v>
       </c>
       <c r="EU5" s="3">
         <f t="shared" si="10"/>
-        <v>1.5156678584461216</v>
+        <v>1.6123345251127905</v>
       </c>
       <c r="EV5" s="3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/P_Type.xlsx
+++ b/data/P_Type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82134FDD-E314-420A-9095-E844B6B80916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8258825A-844C-4181-985B-236E78287FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A1E14EBA-2D53-4191-B00D-F0359C507412}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,6 +357,2301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>P_Type parameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$CX$1:$EV$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$CX$2:$EV$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51A3-4E48-A46D-6D2586296066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$CX$1:$EV$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$CX$3:$EV$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51A3-4E48-A46D-6D2586296066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$CX$1:$EV$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$CX$4:$EV$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8786440252787182</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8626892244360942</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8467344235934702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8307796227508462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8148248219082221</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7988700210655981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7829152202229741</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7669604193803501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7510056185377261</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7350508176951021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.719096016852478</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.703141216009854</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.68718641516723</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.671231614324606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.655276813481982</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.639322012639358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6233672117967339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6074124109541099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5914576101114859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5755028092688619</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5595480084262379</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5435932075836138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5276384067409898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5116836058983658</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4957288050557418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4797740042131178</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4638192033704938</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4478644025278697</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4319096016852457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4159548008426217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51A3-4E48-A46D-6D2586296066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$CX$1:$EV$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$CX$5:$EV$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9700357533836292</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9577012282708417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9453667031580542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9330321780452666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9206976529324791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9083631278196915</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.896028602706904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8836940775941164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8713595524813289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8590250273685414</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8466905022557538</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8343559771429663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8220214520301787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8096869269173912</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7973524018046036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7850178766918161</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7726833515790286</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.760348826466241</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7480143013534535</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7356797762406659</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7233452511278784</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7110107260150909</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6986762009023033</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6863416757895158</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6740071506767282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6616726255639407</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6493381004511531</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6370035753383656</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6246690502255781</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6123345251127905</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51A3-4E48-A46D-6D2586296066}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1265184936"/>
+        <c:axId val="1265185592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1265184936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265185592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1265185592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265184936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D587B3C3-D475-79FD-C083-679561EDDB17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,11 +3454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF9B55B-12FE-418D-9CE2-848557F20CC6}">
   <dimension ref="A1:EX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DL2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="DM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EV6" sqref="EV6"/>
+      <selection pane="bottomRight" activeCell="DW16" sqref="DW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="CX3" s="3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CY3" s="3">
         <v>1.2</v>
@@ -2997,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="CX4" s="3">
-        <v>0</v>
+        <v>1.8786440252787182</v>
       </c>
       <c r="CY4" s="3">
         <v>1.8786440252787182</v>
@@ -3064,7 +5359,7 @@
         <v>1.8626892244360942</v>
       </c>
       <c r="DT4" s="3">
-        <f t="shared" ref="DS2:EU4" si="7">DS4+($EV4-$DR4)/30</f>
+        <f t="shared" ref="DT4:EU4" si="7">DS4+($EV4-$DR4)/30</f>
         <v>1.8467344235934702</v>
       </c>
       <c r="DU4" s="3">
@@ -3534,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="CX5" s="3">
-        <v>0</v>
+        <v>1.9700357533836292</v>
       </c>
       <c r="CY5" s="3">
         <v>1.9700357533836292</v>
@@ -3719,5 +6014,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>